--- a/Weight_matrix.xlsx
+++ b/Weight_matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\ai-sustainability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B61DBE-1522-44F9-966F-11CD53CE0B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BAE9F8-0B13-45A3-A5B2-4AE0FC8C3D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,10 +709,10 @@
         <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -930,11 +930,11 @@
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>96</v>

--- a/Weight_matrix.xlsx
+++ b/Weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\ai-sustainability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BAE9F8-0B13-45A3-A5B2-4AE0FC8C3D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69BE0D-46C9-4D72-B7B7-1A50278BF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Weight_matrix.xlsx
+++ b/Weight_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hennecarta\Documents\Graph_decision_AI\ai-sustainability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB69BE0D-46C9-4D72-B7B7-1A50278BF59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894AF94-04E0-45E6-BF1A-DE826C8A2757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC26B5E7-4148-4700-AAF1-8A62823EFFAF}"/>
   </bookViews>
